--- a/behavioral_August2019/story_xlsx_files_RECORDED/22.xlsx
+++ b/behavioral_August2019/story_xlsx_files_RECORDED/22.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>sentence_number</t>
+  </si>
   <si>
     <t>storyText</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -33,25 +39,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">en and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible week with Isabel’s family, and this had wiped away any doubts Sven had had about his decision to propose. </t>
+      <t xml:space="preserve">Sven and Isabel walked hurriedly from the cab into the Barcelona Airport after an incredible week with Isabel’s family, and this had wiped away any doubts Sven had had about his decision to propose. </t>
     </r>
   </si>
   <si>
@@ -92,43 +80,66 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>T</t>
+      <t xml:space="preserve">They entered the security line, weaving through the roped walkways to the front. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When it was their turn to deposit their things onto the belt, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces on his person. </t>
+  </si>
+  <si>
+    <t>Sven held the growing mound of objects Isabel pulled from her bag until she unearthed the laptop and set it in a bin.</t>
+  </si>
+  <si>
+    <t>She then gave her bag to Sven, unstrapped her heels, and took the bag back from Sven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, and took off his shoes. </t>
+  </si>
+  <si>
+    <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and looked at Isabel as the metal bars whirled around him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The security guard asked Sven to wait. </t>
+  </si>
+  <si>
+    <t>After looking at the monitor, the security guard said, “Sir, please empty your pockets.”</t>
+  </si>
+  <si>
+    <t>Isabel, shoeless, wrinkled her eyebrows and looked at him expectantly.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">hey entered the security line, weaving through the roped walkways to the front. </t>
+      <t>Realizing that he had forgotten the ring in his pocket, he grabbed Isabel’s hand, got down on one knee, and opening the velvet box, said, “Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">When it was their turn to deposit their things onto the belt, Isabel realized her laptop was buried somewhere in her duffle bag. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces on his person. </t>
-  </si>
-  <si>
-    <t>Sven held the growing mound of objects Isabel pulled from her bag until she unearthed the laptop and set it in a bin.</t>
-  </si>
-  <si>
-    <t>She then gave her bag to Sven, unstrapped her heels, and took the bag back from Sven.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sven, relieved of his holding duties, hurriedly deposited his own backpack on the belt, and took off his shoes. </t>
-  </si>
-  <si>
-    <t>Sven went into the millimeter wave scanner after Isabel, put his hands up, and looked at Isabel as the metal bars whirled around him.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The security guard asked Sven to wait. </t>
-  </si>
-  <si>
-    <t>After looking at the monitor, the security guard said, “Sir, please empty your pockets.”</t>
-  </si>
-  <si>
-    <t>Isabel, shoeless, wrinkled her eyebrows and looked at him expectantly.</t>
+    <t xml:space="preserve">He held the ring up to her. </t>
+  </si>
+  <si>
+    <t>The security guard stood shocked.</t>
+  </si>
+  <si>
+    <t>All the people who were putting their shoes back on and gathering their belongings stopped and walked closer to the couple.</t>
+  </si>
+  <si>
+    <t>Isabel didn’t know what to do since she was far too shy to respond in front of all the people around.</t>
+  </si>
+  <si>
+    <t>Without responding to Sven, she  let go of his hand and frantically grabbed her and Sven’s shoes from the conveyor belt, leaving Sven to retrieve the rest of their things, and she quickly walked onto the concourse.</t>
+  </si>
+  <si>
+    <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
+  </si>
+  <si>
+    <t>Sven eventually caught up to her with their bags and the open ring box.</t>
   </si>
   <si>
     <r>
@@ -137,70 +148,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Realizing that he had forgotten the ring in his pocket, he </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">grabbed Isabel’s hand, got down on one knee, and opening the velvet box, said, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>“Isabel, this isn't quite how I'd planned this, but - will you marry me?”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">He held the ring up to her. </t>
-  </si>
-  <si>
-    <t>The security guard stood shocked.</t>
-  </si>
-  <si>
-    <t>All the people who were putting their shoes back on and gathering their belongings stopped and walked closer to the couple.</t>
-  </si>
-  <si>
-    <t>Isabel didn’t know what to do since she was far too shy to respond in front of all the people around.</t>
-  </si>
-  <si>
-    <t>Without responding to Sven, she  let go of his hand and frantically grabbed her and Sven’s shoes from the conveyor belt, leaving Sven to retrieve the rest of their things, and she quickly walked onto the concourse.</t>
-  </si>
-  <si>
-    <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
-  </si>
-  <si>
-    <t>Sven eventually caught up to her with their bags and the open ring box.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">She stopped and with wide, excited eyes, shouted, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>“Yes, I’ll marry you!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">” </t>
+      <t xml:space="preserve">She stopped and with wide, excited eyes, shouted, “Yes, I’ll marry you!” </t>
     </r>
   </si>
   <si>
@@ -261,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -269,6 +217,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -289,7 +242,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +261,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -329,6 +288,21 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -367,10 +341,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -379,7 +353,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -435,43 +409,43 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,6 +469,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -511,10 +486,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -543,14 +518,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -691,11 +666,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -704,33 +682,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -981,10 +959,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1275,7 +1253,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1299,9 +1277,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1556,16 +1534,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1581,581 +1564,732 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="164.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>6</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>22</v>
       </c>
-      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
+      <c r="A3" s="8">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>7</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="188.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
+      <c r="A4" s="8">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>8</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="349.8" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="8">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" ht="169.8" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="8">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="277.8" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="8">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="133.8" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="8">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="61.8" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="8">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="97.8" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="8">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="151.8" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
+      <c r="A11" s="8">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="223.8" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
+      <c r="A12" s="8">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>16</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="259.8" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
+      <c r="A13" s="8">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>17</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="223.8" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
+      <c r="A14" s="8">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="169.8" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
+      <c r="A15" s="8">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>19</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="205.8" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
+      <c r="A16" s="8">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>20</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="241.8" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
+      <c r="A17" s="8">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>21</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="79.8" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
+      <c r="A18" s="8">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>22</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="151.8" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2</v>
+      <c r="A19" s="8">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>23</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="133.8" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2</v>
+      <c r="A20" s="8">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="367.8" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9">
-        <v>2</v>
+      <c r="A21" s="8">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>25</v>
       </c>
       <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11">
         <v>3</v>
       </c>
-      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2</v>
+      <c r="A22" s="8">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>26</v>
       </c>
       <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
         <v>3</v>
       </c>
-      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="61.8" customHeight="1">
-      <c r="A23" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2</v>
+      <c r="A23" s="8">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>27</v>
       </c>
       <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
         <v>3</v>
       </c>
-      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="223.8" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2</v>
+      <c r="A24" s="8">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>28</v>
       </c>
       <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" ht="169.8" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9">
-        <v>2</v>
+      <c r="A25" s="8">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="367.8" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
+      <c r="A26" s="8">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11">
+        <v>3</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="169.8" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
+      <c r="A27" s="8">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>31</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="151.8" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
+      <c r="A28" s="8">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>32</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11">
+        <v>3</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="151.8" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="8">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10">
         <v>3</v>
       </c>
-      <c r="C29" s="10">
+      <c r="D29" s="11">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" ht="187.8" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="A30" s="8">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="C30" s="10">
         <v>3</v>
       </c>
-      <c r="C30" s="10">
+      <c r="D30" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="61.8" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="A31" s="8">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="C31" s="10">
+      <c r="D31" s="11">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" ht="133.8" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="A32" s="8">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="C32" s="10">
         <v>3</v>
       </c>
-      <c r="C32" s="10">
+      <c r="D32" s="11">
         <v>4</v>
       </c>
-      <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" ht="169.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="A33" s="8">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10">
         <v>3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="D33" s="11">
         <v>4</v>
       </c>
-      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" ht="115.8" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="A34" s="8">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
+      <c r="D34" s="11">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" ht="241.8" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
+      <c r="A35" s="8">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11">
+        <v>4</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="187.8" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
+      <c r="A36" s="8">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="12">
+        <v>40</v>
       </c>
       <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11">
+        <v>4</v>
+      </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="403.8" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
+      <c r="A37" s="8">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="12">
+        <v>41</v>
       </c>
       <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="440.35" customHeight="1">
-      <c r="A38" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
+      <c r="A38" s="8">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="12">
+        <v>42</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>4</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" ht="25.8" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>